--- a/AnalyzableData_8.1.19.xlsx
+++ b/AnalyzableData_8.1.19.xlsx
@@ -9,12 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1740" windowWidth="43240" windowHeight="24740" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="1740" windowWidth="43240" windowHeight="24740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Age</t>
   </si>
@@ -70,9 +68,6 @@
     <t>LNS_z</t>
   </si>
   <si>
-    <t>Mazes_z</t>
-  </si>
-  <si>
     <t>AnimalNaming_z</t>
   </si>
   <si>
@@ -86,9 +81,6 @@
   </si>
   <si>
     <t>WAISdstot_z</t>
-  </si>
-  <si>
-    <t>SymbolSpan_Total</t>
   </si>
   <si>
     <t>MCCBComp_SOP_z</t>
@@ -105,72 +97,12 @@
   <si>
     <t>cogID</t>
   </si>
-  <si>
-    <t>has image but no cog</t>
-  </si>
-  <si>
-    <t>Tombaugh_TRAILSa_zscore</t>
-  </si>
-  <si>
-    <t>'AMNART_IQ'</t>
-  </si>
-  <si>
-    <t>'SpatialSpan_Total'</t>
-  </si>
-  <si>
-    <t>'WAISdsf_SS'</t>
-  </si>
-  <si>
-    <t>'MCCB_TRAILSa_zscore'</t>
-  </si>
-  <si>
-    <t>'TRAILSb_zscore'</t>
-  </si>
-  <si>
-    <t>'SymbolCoding_z'</t>
-  </si>
-  <si>
-    <t>'MANUAL_HVLT_TotalRecall_z'</t>
-  </si>
-  <si>
-    <t>'HVLT_DelayedRecall_z'</t>
-  </si>
-  <si>
-    <t>'MCCB_HVLT_TotalRecall_z'</t>
-  </si>
-  <si>
-    <t>'HVLT_Discrimination_z'</t>
-  </si>
-  <si>
-    <t>'LNS_z'</t>
-  </si>
-  <si>
-    <t>'AnimalNaming_z'</t>
-  </si>
-  <si>
-    <t>'WAISdsb_z'</t>
-  </si>
-  <si>
-    <t>'WAISdss_z'</t>
-  </si>
-  <si>
-    <t>'WAISdstot_z'</t>
-  </si>
-  <si>
-    <t>'MCCBComp_SOP_z'</t>
-  </si>
-  <si>
-    <t>'MCCBComp_WM_z'</t>
-  </si>
-  <si>
-    <t>SymbolSpan_Total'</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,50 +110,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,27 +128,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
@@ -574,10 +455,10 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -595,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -622,22 +503,22 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -2996,7 +2877,7 @@
         <v>-2</v>
       </c>
       <c r="O36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P36">
         <v>-0.6</v>
@@ -3212,10 +3093,10 @@
         <v>-0.33</v>
       </c>
       <c r="S39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U39">
         <v>-1.3</v>
@@ -3531,7 +3412,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M44">
         <v>-2.2999999999999998</v>
@@ -3599,16 +3480,16 @@
         <v>-3</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P45">
         <v>-0.6</v>
@@ -4069,7 +3950,7 @@
         <v>-0.2</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4409,7 +4290,7 @@
         <v>-0.5</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K57">
         <v>-2.4</v>
@@ -4551,16 +4432,16 @@
         <v>0.2</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P59">
         <v>-0.8</v>
@@ -5293,7 +5174,7 @@
         <v>-0.9</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K70">
         <v>-1</v>
@@ -5556,7 +5437,7 @@
         <v>118.96</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -5950,2227 +5831,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="5" width="18.83203125" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1003</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-1.45</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1035</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-0.76</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1055</v>
-      </c>
-      <c r="D4">
-        <v>-0.7</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1.47</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1060</v>
-      </c>
-      <c r="D5">
-        <v>-2.8</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1080</v>
-      </c>
-      <c r="D6">
-        <v>-0.8</v>
-      </c>
-      <c r="E6">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1210</v>
-      </c>
-      <c r="D7">
-        <v>1.2</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <v>-0.4</v>
-      </c>
-      <c r="E8">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.53</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <v>-1.2</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-2.92</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>-1.5</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.59</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>-1.6</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.88</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <v>-1.5</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-3</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.27</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>-0.2</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.08</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-1.53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <v>1.3</v>
-      </c>
-      <c r="E17">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.42</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <v>0.7</v>
-      </c>
-      <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-0.18</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <v>0.6</v>
-      </c>
-      <c r="E19">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-2.02</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <v>0.7</v>
-      </c>
-      <c r="E20">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>-0.2</v>
-      </c>
-      <c r="E21">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <v>-0.9</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <v>-1.8</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E24">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <v>-2.4</v>
-      </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <v>-0.6</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <v>-2.1</v>
-      </c>
-      <c r="E27">
-        <v>22</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>37</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="E29">
-        <v>24</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <v>0.5</v>
-      </c>
-      <c r="E30">
-        <v>24</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <v>-0.8</v>
-      </c>
-      <c r="E31">
-        <v>24</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E32">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <v>0.8</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <v>-0.1</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <v>0.4</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E36">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="E37">
-        <v>37</v>
-      </c>
-      <c r="F37" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <v>0.3</v>
-      </c>
-      <c r="E38">
-        <v>16</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <v>-1.6</v>
-      </c>
-      <c r="E39">
-        <v>24</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>0.8</v>
-      </c>
-      <c r="E40">
-        <v>32</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>33</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <v>0.2</v>
-      </c>
-      <c r="E42">
-        <v>33</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <v>0.3</v>
-      </c>
-      <c r="E43">
-        <v>26</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <v>-0.1</v>
-      </c>
-      <c r="E44">
-        <v>26</v>
-      </c>
-      <c r="F44" s="1">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
-        <v>16</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>35</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <v>-0.7</v>
-      </c>
-      <c r="E47">
-        <v>15</v>
-      </c>
-      <c r="F47" s="1">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <v>-0.8</v>
-      </c>
-      <c r="E48">
-        <v>21</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E49">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <v>0.4</v>
-      </c>
-      <c r="E50">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <v>-0.4</v>
-      </c>
-      <c r="E51">
-        <v>33</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-0.99</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52">
-        <v>0.4</v>
-      </c>
-      <c r="E52">
-        <v>28</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <v>-1</v>
-      </c>
-      <c r="E53">
-        <v>16</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54">
-        <v>-0.7</v>
-      </c>
-      <c r="E54">
-        <v>36</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D55">
-        <v>0.1</v>
-      </c>
-      <c r="E55">
-        <v>24</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <v>-2.7</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1">
-        <v>-2.78</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D57">
-        <v>-0.2</v>
-      </c>
-      <c r="E57">
-        <v>11</v>
-      </c>
-      <c r="F57" s="1">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D58">
-        <v>-0.5</v>
-      </c>
-      <c r="E58">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D59">
-        <v>-0.7</v>
-      </c>
-      <c r="E59">
-        <v>11</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D60">
-        <v>-1.4</v>
-      </c>
-      <c r="E60">
-        <v>9</v>
-      </c>
-      <c r="F60" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D61">
-        <v>-1.3</v>
-      </c>
-      <c r="E61">
-        <v>24</v>
-      </c>
-      <c r="F61" s="1">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D62">
-        <v>1.3</v>
-      </c>
-      <c r="E62">
-        <v>28</v>
-      </c>
-      <c r="F62" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D63">
-        <v>-0.1</v>
-      </c>
-      <c r="E63">
-        <v>16</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D64">
-        <v>-0.4</v>
-      </c>
-      <c r="E64">
-        <v>35</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D65">
-        <v>0.7</v>
-      </c>
-      <c r="E65">
-        <v>26</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D66">
-        <v>-0.1</v>
-      </c>
-      <c r="E66">
-        <v>40</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>24</v>
-      </c>
-      <c r="F67" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D68">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D69">
-        <v>-0.1</v>
-      </c>
-      <c r="E69">
-        <v>25</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D70">
-        <v>0.5</v>
-      </c>
-      <c r="E70">
-        <v>34</v>
-      </c>
-      <c r="F70" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D71">
-        <v>-2.9</v>
-      </c>
-      <c r="E71">
-        <v>30</v>
-      </c>
-      <c r="F71" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D72">
-        <v>-0.8</v>
-      </c>
-      <c r="E72">
-        <v>21</v>
-      </c>
-      <c r="F72" s="1">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D73">
-        <v>0.1</v>
-      </c>
-      <c r="E73">
-        <v>36</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D74">
-        <v>-0.7</v>
-      </c>
-      <c r="E74">
-        <v>37</v>
-      </c>
-      <c r="F74" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D75">
-        <v>-1.3</v>
-      </c>
-      <c r="E75">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D76">
-        <v>-0.4</v>
-      </c>
-      <c r="E76">
-        <v>23</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D77">
-        <v>-1.5</v>
-      </c>
-      <c r="E77">
-        <v>30</v>
-      </c>
-      <c r="F77" s="1">
-        <v>-2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D78">
-        <v>-0.6</v>
-      </c>
-      <c r="E78">
-        <v>35</v>
-      </c>
-      <c r="F78" s="1">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D79">
-        <v>0.2</v>
-      </c>
-      <c r="E79">
-        <v>30</v>
-      </c>
-      <c r="F79" s="1">
-        <v>-0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>43223</v>
-      </c>
-      <c r="C1" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>68000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>67000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>66500</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>68600</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>92800</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>318721</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>17652</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>37721</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>75721</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>31872</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-1.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>46630</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>20050</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>87630</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-2.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>10140</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-1.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>31650</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>24610</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>78500</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-0.87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>51500</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>93100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>19070</v>
-      </c>
-      <c r="C21" s="1">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>19110</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>19130</v>
-      </c>
-      <c r="C23" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>19120</v>
-      </c>
-      <c r="C24" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>19150</v>
-      </c>
-      <c r="C25" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>19180</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1001</v>
-      </c>
-      <c r="B27">
-        <v>63222</v>
-      </c>
-      <c r="C27" s="1">
-        <v>-1.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1002</v>
-      </c>
-      <c r="B28">
-        <v>82031</v>
-      </c>
-      <c r="C28" s="1">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1004</v>
-      </c>
-      <c r="B29">
-        <v>32079</v>
-      </c>
-      <c r="C29" s="1">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1006</v>
-      </c>
-      <c r="B30">
-        <v>91765</v>
-      </c>
-      <c r="C30" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1008</v>
-      </c>
-      <c r="B31">
-        <v>63114</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B32" s="2">
-        <v>23224</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1012</v>
-      </c>
-      <c r="B33">
-        <v>25431</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1013</v>
-      </c>
-      <c r="B34">
-        <v>65672</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1014</v>
-      </c>
-      <c r="B35">
-        <v>76034</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-2.92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1016</v>
-      </c>
-      <c r="B36">
-        <v>37720</v>
-      </c>
-      <c r="C36" s="1">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1017</v>
-      </c>
-      <c r="B37">
-        <v>37723</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1019</v>
-      </c>
-      <c r="B38">
-        <v>33430</v>
-      </c>
-      <c r="C38" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1020</v>
-      </c>
-      <c r="B39">
-        <v>43220</v>
-      </c>
-      <c r="C39" s="1">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1021</v>
-      </c>
-      <c r="B40">
-        <v>60650</v>
-      </c>
-      <c r="C40" s="1">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1022</v>
-      </c>
-      <c r="B41">
-        <v>29290</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1023</v>
-      </c>
-      <c r="B42">
-        <v>80400</v>
-      </c>
-      <c r="C42" s="1">
-        <v>-1.53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1024</v>
-      </c>
-      <c r="B43">
-        <v>36900</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1025</v>
-      </c>
-      <c r="B44">
-        <v>31360</v>
-      </c>
-      <c r="C44" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1026</v>
-      </c>
-      <c r="B45">
-        <v>84687</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1027</v>
-      </c>
-      <c r="B46">
-        <v>24192</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1028</v>
-      </c>
-      <c r="B47">
-        <v>12457</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1029</v>
-      </c>
-      <c r="B48">
-        <v>11813</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1030</v>
-      </c>
-      <c r="B49">
-        <v>34560</v>
-      </c>
-      <c r="C49" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1031</v>
-      </c>
-      <c r="B50">
-        <v>53573</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1032</v>
-      </c>
-      <c r="B51">
-        <v>73430</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-2.34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1033</v>
-      </c>
-      <c r="B52">
-        <v>43078</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1034</v>
-      </c>
-      <c r="B53">
-        <v>20010</v>
-      </c>
-      <c r="C53" s="1">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1036</v>
-      </c>
-      <c r="B54">
-        <v>72017</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1037</v>
-      </c>
-      <c r="B55">
-        <v>54851</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1038</v>
-      </c>
-      <c r="B56">
-        <v>52066</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1040</v>
-      </c>
-      <c r="B57">
-        <v>40440</v>
-      </c>
-      <c r="C57" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1041</v>
-      </c>
-      <c r="B58">
-        <v>20110</v>
-      </c>
-      <c r="C58" s="1">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1043</v>
-      </c>
-      <c r="B59">
-        <v>68411</v>
-      </c>
-      <c r="C59" s="1">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1044</v>
-      </c>
-      <c r="B60">
-        <v>20130</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1045</v>
-      </c>
-      <c r="B61">
-        <v>10130</v>
-      </c>
-      <c r="C61" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1048</v>
-      </c>
-      <c r="B62">
-        <v>47158</v>
-      </c>
-      <c r="C62" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1050</v>
-      </c>
-      <c r="B63">
-        <v>21679</v>
-      </c>
-      <c r="C63" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1052</v>
-      </c>
-      <c r="B64">
-        <v>75720</v>
-      </c>
-      <c r="C64" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1053</v>
-      </c>
-      <c r="B65">
-        <v>52940</v>
-      </c>
-      <c r="C65" s="1">
-        <v>-0.74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1054</v>
-      </c>
-      <c r="B66">
-        <v>64770</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1056</v>
-      </c>
-      <c r="B67">
-        <v>52550</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1057</v>
-      </c>
-      <c r="B68">
-        <v>87950</v>
-      </c>
-      <c r="C68" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1058</v>
-      </c>
-      <c r="B69">
-        <v>50080</v>
-      </c>
-      <c r="C69" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1059</v>
-      </c>
-      <c r="B70">
-        <v>50200</v>
-      </c>
-      <c r="C70" s="1">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1060</v>
-      </c>
-      <c r="B71">
-        <v>50100</v>
-      </c>
-      <c r="C71" s="1">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1061</v>
-      </c>
-      <c r="B72">
-        <v>50050</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>1062</v>
-      </c>
-      <c r="B73" s="2">
-        <v>50300</v>
-      </c>
-      <c r="C73" s="2">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1063</v>
-      </c>
-      <c r="B74">
-        <v>50900</v>
-      </c>
-      <c r="C74" s="1">
-        <v>-2.19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1064</v>
-      </c>
-      <c r="B75">
-        <v>60500</v>
-      </c>
-      <c r="C75" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1068</v>
-      </c>
-      <c r="B76">
-        <v>50800</v>
-      </c>
-      <c r="C76" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1069</v>
-      </c>
-      <c r="B77">
-        <v>68010</v>
-      </c>
-      <c r="C77" s="1">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1070</v>
-      </c>
-      <c r="B78">
-        <v>77000</v>
-      </c>
-      <c r="C78" s="1">
-        <v>-0.99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1072</v>
-      </c>
-      <c r="B79">
-        <v>92000</v>
-      </c>
-      <c r="C79" s="1">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1073</v>
-      </c>
-      <c r="B80">
-        <v>70000</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>1074</v>
-      </c>
-      <c r="B81">
-        <v>92020</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>1076</v>
-      </c>
-      <c r="B82">
-        <v>92300</v>
-      </c>
-      <c r="C82" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>1077</v>
-      </c>
-      <c r="B83">
-        <v>92120</v>
-      </c>
-      <c r="C83" s="1">
-        <v>-2.78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>1078</v>
-      </c>
-      <c r="B84">
-        <v>92600</v>
-      </c>
-      <c r="C84" s="1">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1079</v>
-      </c>
-      <c r="B85">
-        <v>92400</v>
-      </c>
-      <c r="C85" s="1">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1080</v>
-      </c>
-      <c r="B86">
-        <v>92500</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1081</v>
-      </c>
-      <c r="B87">
-        <v>93000</v>
-      </c>
-      <c r="C87" s="1">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1082</v>
-      </c>
-      <c r="B88">
-        <v>92700</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-1.47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1083</v>
-      </c>
-      <c r="B89">
-        <v>20060</v>
-      </c>
-      <c r="C89" s="1">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1086</v>
-      </c>
-      <c r="B90">
-        <v>50700</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1087</v>
-      </c>
-      <c r="B91">
-        <v>93500</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1088</v>
-      </c>
-      <c r="B92">
-        <v>93700</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1089</v>
-      </c>
-      <c r="B93">
-        <v>93800</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1090</v>
-      </c>
-      <c r="B94">
-        <v>94200</v>
-      </c>
-      <c r="C94" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1091</v>
-      </c>
-      <c r="B95">
-        <v>94300</v>
-      </c>
-      <c r="C95" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1092</v>
-      </c>
-      <c r="B96">
-        <v>94400</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1093</v>
-      </c>
-      <c r="B97">
-        <v>94500</v>
-      </c>
-      <c r="C97" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1094</v>
-      </c>
-      <c r="B98">
-        <v>94600</v>
-      </c>
-      <c r="C98" s="1">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>1095</v>
-      </c>
-      <c r="B99" s="2">
-        <v>19010</v>
-      </c>
-      <c r="C99" s="2">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1096</v>
-      </c>
-      <c r="B100">
-        <v>19020</v>
-      </c>
-      <c r="C100" s="1">
-        <v>-0.76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1097</v>
-      </c>
-      <c r="B101">
-        <v>19040</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1098</v>
-      </c>
-      <c r="B102">
-        <v>19030</v>
-      </c>
-      <c r="C102" s="1">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1099</v>
-      </c>
-      <c r="B103">
-        <v>19050</v>
-      </c>
-      <c r="C103" s="1">
-        <v>-0.88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1201</v>
-      </c>
-      <c r="B104">
-        <v>19060</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1206</v>
-      </c>
-      <c r="B105">
-        <v>19140</v>
-      </c>
-      <c r="C105" s="1">
-        <v>-2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1207</v>
-      </c>
-      <c r="B106">
-        <v>19190</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1208</v>
-      </c>
-      <c r="B107">
-        <v>19170</v>
-      </c>
-      <c r="C107" s="1">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:C110">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>